--- a/build/output/StructureDefinition-cibmtr-patient.xlsx
+++ b/build/output/StructureDefinition-cibmtr-patient.xlsx
@@ -6628,7 +6628,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>52</v>
